--- a/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEF3C70-F653-4564-8BFD-6F816807F8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8BA92FD-C8BC-451B-9848-352196CD3CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -312,13 +312,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S4aH5,S4aH2,S5aH4,S1aH2,S2aH3,S3aH6,S5aH6,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S3aH4,S4aH3,S4aH4,S3aH2,S3aH3,S2aH6,S3aH5,S5aH3</t>
+    <t>S4aH2,S5aH4,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S1aH4,S2aH2,S4aH6,S1aH2,S2aH3,S3aH6,S5aH6,S4aH5,S2aH6,S3aH5,S5aH3,S1aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH1,S2aH7,S1aH7,S4aH7,S5aH7,S2aH1,S3aH7,S5aH8,S4aH1,S4aH8,S3aH1,S2aH8,S3aH8,S1aH8,S5aH1</t>
+    <t>S2aH1,S3aH7,S5aH8,S3aH8,S2aH8,S1aH1,S2aH7,S4aH8,S3aH1,S4aH1,S1aH8,S5aH1,S1aH7,S4aH7,S5aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -921,7 +921,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1aH1,S2aH7,S1aH7,S4aH7,S5aH7,S2aH1,S3aH7,S5aH8,S4aH1,S4aH8,S3aH1,S2aH8,S3aH8,S1aH8,S5aH1</v>
+        <v>S2aH1,S3aH7,S5aH8,S3aH8,S2aH8,S1aH1,S2aH7,S4aH8,S3aH1,S4aH1,S1aH8,S5aH1,S1aH7,S4aH7,S5aH7</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -953,7 +953,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S4aH5,S4aH2,S5aH4,S1aH2,S2aH3,S3aH6,S5aH6,S1aH4,S2aH2,S4aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S3aH4,S4aH3,S4aH4,S3aH2,S3aH3,S2aH6,S3aH5,S5aH3</v>
+        <v>S4aH2,S5aH4,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S1aH4,S2aH2,S4aH6,S1aH2,S2aH3,S3aH6,S5aH6,S4aH5,S2aH6,S3aH5,S5aH3,S1aH3</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA553D1-19CE-45F1-9CA9-CB0950DFCC14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5890919-79AA-433E-984F-ECFE4B4C9274}">
   <dimension ref="A9:AM90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1192,10 +1192,10 @@
         <v>5.4219642409128355E-2</v>
       </c>
       <c r="AK11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL11">
-        <v>6.9727812434402098E-2</v>
+        <v>0.33342519282419497</v>
       </c>
       <c r="AM11" t="s">
         <v>98</v>
@@ -1364,10 +1364,10 @@
         <v>3.400352538193907E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>0.31657938220904136</v>
+        <v>6.9285379808494502E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>98</v>
@@ -1450,10 +1450,10 @@
         <v>7.1298738181859944E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL14">
-        <v>6.9285379808494502E-2</v>
+        <v>0.31657938220904136</v>
       </c>
       <c r="AM14" t="s">
         <v>98</v>
@@ -1536,10 +1536,10 @@
         <v>2.5996681318365855E-2</v>
       </c>
       <c r="AK15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL15">
-        <v>0.33342519282419497</v>
+        <v>6.9727812434402098E-2</v>
       </c>
       <c r="AM15" t="s">
         <v>98</v>

--- a/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8BA92FD-C8BC-451B-9848-352196CD3CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A186CB2E-81A5-491F-B437-D96264F86137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -312,13 +312,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S4aH2,S5aH4,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S1aH4,S2aH2,S4aH6,S1aH2,S2aH3,S3aH6,S5aH6,S4aH5,S2aH6,S3aH5,S5aH3,S1aH3</t>
+    <t>S1aH4,S2aH2,S4aH6,S1aH2,S2aH3,S3aH6,S5aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S1aH3,S5aH4,S3aH4,S4aH3,S4aH4,S4aH2,S2aH6,S3aH5,S5aH3,S4aH5,S3aH2,S3aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH1,S3aH7,S5aH8,S3aH8,S2aH8,S1aH1,S2aH7,S4aH8,S3aH1,S4aH1,S1aH8,S5aH1,S1aH7,S4aH7,S5aH7</t>
+    <t>S4aH1,S3aH1,S4aH8,S1aH7,S4aH7,S5aH7,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S1aH8,S5aH1,S2aH8,S3aH8</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -921,7 +921,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH1,S3aH7,S5aH8,S3aH8,S2aH8,S1aH1,S2aH7,S4aH8,S3aH1,S4aH1,S1aH8,S5aH1,S1aH7,S4aH7,S5aH7</v>
+        <v>S4aH1,S3aH1,S4aH8,S1aH7,S4aH7,S5aH7,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S1aH8,S5aH1,S2aH8,S3aH8</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -953,7 +953,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S4aH2,S5aH4,S3aH2,S3aH4,S4aH3,S4aH4,S3aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S1aH4,S2aH2,S4aH6,S1aH2,S2aH3,S3aH6,S5aH6,S4aH5,S2aH6,S3aH5,S5aH3,S1aH3</v>
+        <v>S1aH4,S2aH2,S4aH6,S1aH2,S2aH3,S3aH6,S5aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH6,S1aH3,S5aH4,S3aH4,S4aH3,S4aH4,S4aH2,S2aH6,S3aH5,S5aH3,S4aH5,S3aH2,S3aH3</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5890919-79AA-433E-984F-ECFE4B4C9274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2314AD56-AD39-47DE-976B-01441FD83EFE}">
   <dimension ref="A9:AM90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1192,10 +1192,10 @@
         <v>5.4219642409128355E-2</v>
       </c>
       <c r="AK11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL11">
-        <v>0.33342519282419497</v>
+        <v>0.3165793822090413</v>
       </c>
       <c r="AM11" t="s">
         <v>98</v>
@@ -1281,7 +1281,7 @@
         <v>28</v>
       </c>
       <c r="AL12">
-        <v>0.41098223272386714</v>
+        <v>0.41098223272386708</v>
       </c>
       <c r="AM12" t="s">
         <v>98</v>
@@ -1364,10 +1364,10 @@
         <v>3.400352538193907E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AL13">
-        <v>6.9285379808494502E-2</v>
+        <v>6.9727812434402084E-2</v>
       </c>
       <c r="AM13" t="s">
         <v>98</v>
@@ -1450,10 +1450,10 @@
         <v>7.1298738181859944E-2</v>
       </c>
       <c r="AK14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL14">
-        <v>0.31657938220904136</v>
+        <v>0.33342519282419486</v>
       </c>
       <c r="AM14" t="s">
         <v>98</v>
@@ -1536,10 +1536,10 @@
         <v>2.5996681318365855E-2</v>
       </c>
       <c r="AK15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL15">
-        <v>6.9727812434402098E-2</v>
+        <v>6.9285379808494488E-2</v>
       </c>
       <c r="AM15" t="s">
         <v>98</v>
